--- a/result/02case1.xlsx
+++ b/result/02case1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\Python\Learn_Quant\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C53E05B-0036-4732-AEA8-F58B73C45594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7153709-F3EF-48FC-8B0E-B7278BE1AA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Info" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="2406">
-  <si>
-    <t>Trade Time</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="2406">
+  <si>
+    <t>Trade Span</t>
   </si>
   <si>
     <t>Final Yield</t>
@@ -52,310 +52,310 @@
     <t>Year Yield</t>
   </si>
   <si>
-    <t>Annual Compound Yield</t>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2016-12-30</t>
+  </si>
+  <si>
+    <t>2017-12-29</t>
+  </si>
+  <si>
+    <t>2018-12-28</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2022-12-30</t>
+  </si>
+  <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>B/S</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>2014-02-14</t>
+  </si>
+  <si>
+    <t>2014-02-25</t>
+  </si>
+  <si>
+    <t>2014-04-02</t>
+  </si>
+  <si>
+    <t>2014-05-09</t>
+  </si>
+  <si>
+    <t>2014-05-13</t>
+  </si>
+  <si>
+    <t>2014-05-19</t>
+  </si>
+  <si>
+    <t>2014-06-16</t>
+  </si>
+  <si>
+    <t>2014-06-23</t>
+  </si>
+  <si>
+    <t>2014-07-04</t>
+  </si>
+  <si>
+    <t>2014-07-11</t>
+  </si>
+  <si>
+    <t>2014-07-17</t>
+  </si>
+  <si>
+    <t>2014-07-18</t>
+  </si>
+  <si>
+    <t>2014-07-23</t>
+  </si>
+  <si>
+    <t>2014-09-19</t>
+  </si>
+  <si>
+    <t>2014-09-22</t>
+  </si>
+  <si>
+    <t>2014-09-23</t>
+  </si>
+  <si>
+    <t>2014-09-26</t>
+  </si>
+  <si>
+    <t>2014-10-15</t>
+  </si>
+  <si>
+    <t>2014-10-20</t>
+  </si>
+  <si>
+    <t>2014-10-22</t>
+  </si>
+  <si>
+    <t>2014-11-03</t>
+  </si>
+  <si>
+    <t>2015-02-03</t>
+  </si>
+  <si>
+    <t>2015-03-16</t>
+  </si>
+  <si>
+    <t>2015-06-18</t>
+  </si>
+  <si>
+    <t>2015-10-14</t>
+  </si>
+  <si>
+    <t>2015-12-02</t>
+  </si>
+  <si>
+    <t>2015-12-03</t>
+  </si>
+  <si>
+    <t>2015-12-09</t>
+  </si>
+  <si>
+    <t>2015-12-22</t>
+  </si>
+  <si>
+    <t>2016-01-04</t>
+  </si>
+  <si>
+    <t>2016-01-11</t>
+  </si>
+  <si>
+    <t>2016-03-01</t>
+  </si>
+  <si>
+    <t>2016-05-05</t>
+  </si>
+  <si>
+    <t>2016-06-06</t>
+  </si>
+  <si>
+    <t>2016-06-28</t>
+  </si>
+  <si>
+    <t>2016-07-07</t>
+  </si>
+  <si>
+    <t>2016-08-03</t>
+  </si>
+  <si>
+    <t>2016-08-17</t>
+  </si>
+  <si>
+    <t>2016-09-12</t>
+  </si>
+  <si>
+    <t>2016-10-21</t>
+  </si>
+  <si>
+    <t>2016-12-20</t>
+  </si>
+  <si>
+    <t>2017-01-17</t>
+  </si>
+  <si>
+    <t>2017-03-10</t>
+  </si>
+  <si>
+    <t>2017-04-05</t>
+  </si>
+  <si>
+    <t>2017-04-25</t>
+  </si>
+  <si>
+    <t>2017-05-19</t>
+  </si>
+  <si>
+    <t>2017-08-15</t>
+  </si>
+  <si>
+    <t>2017-08-30</t>
+  </si>
+  <si>
+    <t>2017-09-21</t>
+  </si>
+  <si>
+    <t>2017-10-16</t>
+  </si>
+  <si>
+    <t>2017-12-11</t>
+  </si>
+  <si>
+    <t>2018-01-03</t>
+  </si>
+  <si>
+    <t>2018-02-13</t>
+  </si>
+  <si>
+    <t>2018-03-21</t>
+  </si>
+  <si>
+    <t>2018-03-22</t>
+  </si>
+  <si>
+    <t>2018-05-16</t>
+  </si>
+  <si>
+    <t>2018-06-01</t>
+  </si>
+  <si>
+    <t>2018-07-25</t>
+  </si>
+  <si>
+    <t>2018-08-14</t>
+  </si>
+  <si>
+    <t>2018-09-03</t>
+  </si>
+  <si>
+    <t>2018-09-14</t>
+  </si>
+  <si>
+    <t>2018-09-28</t>
+  </si>
+  <si>
+    <t>2018-10-22</t>
+  </si>
+  <si>
+    <t>2018-11-06</t>
+  </si>
+  <si>
+    <t>2018-11-22</t>
+  </si>
+  <si>
+    <t>2018-12-14</t>
+  </si>
+  <si>
+    <t>2018-12-20</t>
+  </si>
+  <si>
+    <t>2019-02-11</t>
+  </si>
+  <si>
+    <t>2019-08-13</t>
+  </si>
+  <si>
+    <t>2019-08-30</t>
+  </si>
+  <si>
+    <t>2019-12-10</t>
+  </si>
+  <si>
+    <t>2019-12-11</t>
+  </si>
+  <si>
+    <t>2019-12-12</t>
+  </si>
+  <si>
+    <t>2019-12-16</t>
+  </si>
+  <si>
+    <t>2020-02-06</t>
+  </si>
+  <si>
+    <t>2020-06-10</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>2021-12-10</t>
+  </si>
+  <si>
+    <t>2022-01-18</t>
+  </si>
+  <si>
+    <t>2022-06-28</t>
+  </si>
+  <si>
+    <t>2022-07-28</t>
+  </si>
+  <si>
+    <t>2022-12-14</t>
+  </si>
+  <si>
+    <t>2023-03-24</t>
+  </si>
+  <si>
+    <t>2023-08-08</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
   </si>
   <si>
     <t>2014-01-02</t>
-  </si>
-  <si>
-    <t>2014-12-31</t>
-  </si>
-  <si>
-    <t>2015-12-31</t>
-  </si>
-  <si>
-    <t>2016-12-30</t>
-  </si>
-  <si>
-    <t>2017-12-29</t>
-  </si>
-  <si>
-    <t>2018-12-28</t>
-  </si>
-  <si>
-    <t>2019-12-31</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>2021-12-31</t>
-  </si>
-  <si>
-    <t>2022-12-30</t>
-  </si>
-  <si>
-    <t>2023-10-31</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>B/S</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Shares</t>
-  </si>
-  <si>
-    <t>Capital</t>
-  </si>
-  <si>
-    <t>2014-02-14</t>
-  </si>
-  <si>
-    <t>2014-02-25</t>
-  </si>
-  <si>
-    <t>2014-04-02</t>
-  </si>
-  <si>
-    <t>2014-05-09</t>
-  </si>
-  <si>
-    <t>2014-05-13</t>
-  </si>
-  <si>
-    <t>2014-05-19</t>
-  </si>
-  <si>
-    <t>2014-06-16</t>
-  </si>
-  <si>
-    <t>2014-06-23</t>
-  </si>
-  <si>
-    <t>2014-07-04</t>
-  </si>
-  <si>
-    <t>2014-07-11</t>
-  </si>
-  <si>
-    <t>2014-07-17</t>
-  </si>
-  <si>
-    <t>2014-07-18</t>
-  </si>
-  <si>
-    <t>2014-07-23</t>
-  </si>
-  <si>
-    <t>2014-09-19</t>
-  </si>
-  <si>
-    <t>2014-09-22</t>
-  </si>
-  <si>
-    <t>2014-09-23</t>
-  </si>
-  <si>
-    <t>2014-09-26</t>
-  </si>
-  <si>
-    <t>2014-10-15</t>
-  </si>
-  <si>
-    <t>2014-10-20</t>
-  </si>
-  <si>
-    <t>2014-10-22</t>
-  </si>
-  <si>
-    <t>2014-11-03</t>
-  </si>
-  <si>
-    <t>2015-02-03</t>
-  </si>
-  <si>
-    <t>2015-03-16</t>
-  </si>
-  <si>
-    <t>2015-06-18</t>
-  </si>
-  <si>
-    <t>2015-10-14</t>
-  </si>
-  <si>
-    <t>2015-12-02</t>
-  </si>
-  <si>
-    <t>2015-12-03</t>
-  </si>
-  <si>
-    <t>2015-12-09</t>
-  </si>
-  <si>
-    <t>2015-12-22</t>
-  </si>
-  <si>
-    <t>2016-01-04</t>
-  </si>
-  <si>
-    <t>2016-01-11</t>
-  </si>
-  <si>
-    <t>2016-03-01</t>
-  </si>
-  <si>
-    <t>2016-05-05</t>
-  </si>
-  <si>
-    <t>2016-06-06</t>
-  </si>
-  <si>
-    <t>2016-06-28</t>
-  </si>
-  <si>
-    <t>2016-07-07</t>
-  </si>
-  <si>
-    <t>2016-08-03</t>
-  </si>
-  <si>
-    <t>2016-08-17</t>
-  </si>
-  <si>
-    <t>2016-09-12</t>
-  </si>
-  <si>
-    <t>2016-10-21</t>
-  </si>
-  <si>
-    <t>2016-12-20</t>
-  </si>
-  <si>
-    <t>2017-01-17</t>
-  </si>
-  <si>
-    <t>2017-03-10</t>
-  </si>
-  <si>
-    <t>2017-04-05</t>
-  </si>
-  <si>
-    <t>2017-04-25</t>
-  </si>
-  <si>
-    <t>2017-05-19</t>
-  </si>
-  <si>
-    <t>2017-08-15</t>
-  </si>
-  <si>
-    <t>2017-08-30</t>
-  </si>
-  <si>
-    <t>2017-09-21</t>
-  </si>
-  <si>
-    <t>2017-10-16</t>
-  </si>
-  <si>
-    <t>2017-12-11</t>
-  </si>
-  <si>
-    <t>2018-01-03</t>
-  </si>
-  <si>
-    <t>2018-02-13</t>
-  </si>
-  <si>
-    <t>2018-03-21</t>
-  </si>
-  <si>
-    <t>2018-03-22</t>
-  </si>
-  <si>
-    <t>2018-05-16</t>
-  </si>
-  <si>
-    <t>2018-06-01</t>
-  </si>
-  <si>
-    <t>2018-07-25</t>
-  </si>
-  <si>
-    <t>2018-08-14</t>
-  </si>
-  <si>
-    <t>2018-09-03</t>
-  </si>
-  <si>
-    <t>2018-09-14</t>
-  </si>
-  <si>
-    <t>2018-09-28</t>
-  </si>
-  <si>
-    <t>2018-10-22</t>
-  </si>
-  <si>
-    <t>2018-11-06</t>
-  </si>
-  <si>
-    <t>2018-11-22</t>
-  </si>
-  <si>
-    <t>2018-12-14</t>
-  </si>
-  <si>
-    <t>2018-12-20</t>
-  </si>
-  <si>
-    <t>2019-02-11</t>
-  </si>
-  <si>
-    <t>2019-08-13</t>
-  </si>
-  <si>
-    <t>2019-08-30</t>
-  </si>
-  <si>
-    <t>2019-12-10</t>
-  </si>
-  <si>
-    <t>2019-12-11</t>
-  </si>
-  <si>
-    <t>2019-12-12</t>
-  </si>
-  <si>
-    <t>2019-12-16</t>
-  </si>
-  <si>
-    <t>2020-02-06</t>
-  </si>
-  <si>
-    <t>2020-06-10</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>2021-12-10</t>
-  </si>
-  <si>
-    <t>2022-01-18</t>
-  </si>
-  <si>
-    <t>2022-06-28</t>
-  </si>
-  <si>
-    <t>2022-07-28</t>
-  </si>
-  <si>
-    <t>2022-12-14</t>
-  </si>
-  <si>
-    <t>2023-03-24</t>
-  </si>
-  <si>
-    <t>2023-08-08</t>
-  </si>
-  <si>
-    <t>2023-08-21</t>
   </si>
   <si>
     <t>2014-01-03</t>
@@ -7259,6 +7259,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7651,8 +7652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7660,7 +7661,7 @@
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -7676,7 +7677,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7685,16 +7686,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.50073058015500616</v>
+        <v>0.5007306250000001</v>
       </c>
       <c r="C2">
-        <v>0.86467970675801142</v>
+        <v>0.2773890495300293</v>
       </c>
       <c r="D2">
-        <v>32.95853570721443</v>
+        <v>0.14045057199145031</v>
       </c>
       <c r="E2">
-        <v>46.578909873962402</v>
+        <v>47.597260713577271</v>
       </c>
     </row>
   </sheetData>
@@ -7705,10 +7706,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7717,10 +7718,9 @@
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -7730,16 +7730,13 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1000000</v>
@@ -7747,33 +7744,27 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1458644.125</v>
       </c>
       <c r="D3">
-        <v>0.45864415168762213</v>
-      </c>
-      <c r="E3">
-        <v>0.45864415168762213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.46015768125916501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1632162.375</v>
@@ -7781,16 +7772,13 @@
       <c r="D4">
         <v>0.118958592414856</v>
       </c>
-      <c r="E4">
-        <v>5.7808391163000739E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>1567923.875</v>
@@ -7798,16 +7786,13 @@
       <c r="D5">
         <v>-3.9357900619506843E-2</v>
       </c>
-      <c r="E5">
-        <v>-1.329528133431623E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>1749972.875</v>
@@ -7815,16 +7800,13 @@
       <c r="D6">
         <v>0.11610829830169681</v>
       </c>
-      <c r="E6">
-        <v>2.784253084205468E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>1379706.125</v>
@@ -7832,16 +7814,13 @@
       <c r="D7">
         <v>-0.21158427000045779</v>
       </c>
-      <c r="E7">
-        <v>-4.6433344662794702E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>1615980.5</v>
@@ -7849,16 +7828,13 @@
       <c r="D8">
         <v>0.17124974727630621</v>
       </c>
-      <c r="E8">
-        <v>2.669532627736149E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>1855499.5</v>
@@ -7866,16 +7842,13 @@
       <c r="D9">
         <v>0.14821898937225339</v>
       </c>
-      <c r="E9">
-        <v>1.9940790124838289E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>1755806.75</v>
@@ -7883,16 +7856,13 @@
       <c r="D10">
         <v>-5.3728282451629639E-2</v>
       </c>
-      <c r="E10">
-        <v>-6.8794181290247058E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>1562246.625</v>
@@ -7900,25 +7870,19 @@
       <c r="D11">
         <v>-0.1102399826049805</v>
       </c>
-      <c r="E11">
-        <v>-1.289431296797372E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>1500730.625</v>
       </c>
       <c r="D12">
-        <v>-3.9376616477966309E-2</v>
-      </c>
-      <c r="E12">
-        <v>4.2178728656494302E-2</v>
+        <v>-4.7089073784461588E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7932,7 +7896,7 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7947,19 +7911,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7967,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -7987,7 +7951,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>-1</v>
@@ -8007,7 +7971,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -8027,7 +7991,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -8047,7 +8011,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8067,7 +8031,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -8087,7 +8051,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -8107,7 +8071,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -8127,7 +8091,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -8147,7 +8111,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>-1</v>
@@ -8167,7 +8131,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -8187,7 +8151,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -8207,7 +8171,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -8227,7 +8191,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15">
         <v>-1</v>
@@ -8247,7 +8211,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -8267,7 +8231,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>-1</v>
@@ -8287,7 +8251,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -8307,7 +8271,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>-1</v>
@@ -8327,7 +8291,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -8347,7 +8311,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21">
         <v>-1</v>
@@ -8367,7 +8331,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -8387,7 +8351,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23">
         <v>-1</v>
@@ -8407,7 +8371,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -8427,7 +8391,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25">
         <v>-1</v>
@@ -8447,7 +8411,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -8467,7 +8431,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27">
         <v>-1</v>
@@ -8487,7 +8451,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -8507,7 +8471,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29">
         <v>-1</v>
@@ -8527,7 +8491,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -8547,7 +8511,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>-1</v>
@@ -8567,7 +8531,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -8587,7 +8551,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33">
         <v>-1</v>
@@ -8607,7 +8571,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -8627,7 +8591,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35">
         <v>-1</v>
@@ -8647,7 +8611,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -8667,7 +8631,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37">
         <v>-1</v>
@@ -8687,7 +8651,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -8707,7 +8671,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39">
         <v>-1</v>
@@ -8727,7 +8691,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -8747,7 +8711,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41">
         <v>-1</v>
@@ -8767,7 +8731,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -8787,7 +8751,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43">
         <v>-1</v>
@@ -8807,7 +8771,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -8827,7 +8791,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45">
         <v>-1</v>
@@ -8847,7 +8811,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -8867,7 +8831,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47">
         <v>-1</v>
@@ -8887,7 +8851,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -8907,7 +8871,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49">
         <v>-1</v>
@@ -8927,7 +8891,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -8947,7 +8911,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51">
         <v>-1</v>
@@ -8967,7 +8931,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -8987,7 +8951,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53">
         <v>-1</v>
@@ -9007,7 +8971,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -9027,7 +8991,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C55">
         <v>-1</v>
@@ -9047,7 +9011,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -9067,7 +9031,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57">
         <v>-1</v>
@@ -9087,7 +9051,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -9107,7 +9071,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59">
         <v>-1</v>
@@ -9127,7 +9091,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -9147,7 +9111,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61">
         <v>-1</v>
@@ -9167,7 +9131,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -9187,7 +9151,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C63">
         <v>-1</v>
@@ -9207,7 +9171,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -9227,7 +9191,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C65">
         <v>-1</v>
@@ -9247,7 +9211,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -9267,7 +9231,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C67">
         <v>-1</v>
@@ -9287,7 +9251,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -9307,7 +9271,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69">
         <v>-1</v>
@@ -9327,7 +9291,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -9347,7 +9311,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C71">
         <v>-1</v>
@@ -9367,7 +9331,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -9387,7 +9351,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C73">
         <v>-1</v>
@@ -9407,7 +9371,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -9427,7 +9391,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C75">
         <v>-1</v>
@@ -9447,7 +9411,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -9467,7 +9431,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C77">
         <v>-1</v>
@@ -9487,7 +9451,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -9507,7 +9471,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79">
         <v>-1</v>
@@ -9527,7 +9491,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -9547,7 +9511,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C81">
         <v>-1</v>
@@ -9567,7 +9531,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -9587,7 +9551,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C83">
         <v>-1</v>
@@ -9607,7 +9571,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -9627,7 +9591,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C85">
         <v>-1</v>
@@ -9647,7 +9611,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -9667,7 +9631,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C87">
         <v>-1</v>
@@ -9692,8 +9656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B2392"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9704,7 +9668,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -9712,7 +9676,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B2">
         <v>1000000</v>
@@ -9920,7 +9884,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>1004098.25</v>
@@ -9976,7 +9940,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35">
         <v>961120.875</v>
@@ -10184,7 +10148,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B61">
         <v>970625.1875</v>
@@ -10376,7 +10340,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B85">
         <v>964306.4375</v>
@@ -10392,7 +10356,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B87">
         <v>961601.1875</v>
@@ -10424,7 +10388,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B91">
         <v>947402</v>
@@ -10576,7 +10540,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B110">
         <v>956389.25</v>
@@ -10616,7 +10580,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B115">
         <v>933882.5</v>
@@ -10688,7 +10652,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B124">
         <v>935068.8125</v>
@@ -10728,7 +10692,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B129">
         <v>915762.25</v>
@@ -10760,7 +10724,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B133">
         <v>911937.0625</v>
@@ -10768,7 +10732,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B134">
         <v>907102.25</v>
@@ -10792,7 +10756,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B137">
         <v>913624.25</v>
@@ -11120,7 +11084,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B178">
         <v>975615.0625</v>
@@ -11128,7 +11092,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B179">
         <v>957056.0625</v>
@@ -11136,7 +11100,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B180">
         <v>956819.1875</v>
@@ -11160,7 +11124,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B183">
         <v>957632</v>
@@ -11224,7 +11188,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B191">
         <v>947574</v>
@@ -11248,7 +11212,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B194">
         <v>946280.75</v>
@@ -11264,7 +11228,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B196">
         <v>939980.5</v>
@@ -11328,7 +11292,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B204">
         <v>932900.3125</v>
@@ -11664,7 +11628,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B246">
         <v>1458644.125</v>
@@ -11840,7 +11804,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B268">
         <v>1334151.25</v>
@@ -12032,7 +11996,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B292">
         <v>1353895.875</v>
@@ -12560,7 +12524,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B358">
         <v>1688208.375</v>
@@ -13168,7 +13132,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B434">
         <v>1680153.625</v>
@@ -13448,7 +13412,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B469">
         <v>1744483.75</v>
@@ -13456,7 +13420,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B470">
         <v>1757563.625</v>
@@ -13488,7 +13452,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B474">
         <v>1682772.875</v>
@@ -13560,7 +13524,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B483">
         <v>1679507</v>
@@ -13616,7 +13580,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B490">
         <v>1632162.375</v>
@@ -13624,7 +13588,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B491">
         <v>1532566.375</v>
@@ -13664,7 +13628,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B496">
         <v>1472781.625</v>
@@ -13912,7 +13876,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B527">
         <v>1493718.5</v>
@@ -14272,7 +14236,7 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B572">
         <v>1626348.875</v>
@@ -14448,7 +14412,7 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B594">
         <v>1615980.75</v>
@@ -14560,7 +14524,7 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B608">
         <v>1579681.625</v>
@@ -14616,7 +14580,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B615">
         <v>1582922.375</v>
@@ -14768,7 +14732,7 @@
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B634">
         <v>1562628.375</v>
@@ -14848,7 +14812,7 @@
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B644">
         <v>1556887.25</v>
@@ -14992,7 +14956,7 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B662">
         <v>1520206.25</v>
@@ -15168,7 +15132,7 @@
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B684">
         <v>1532695.625</v>
@@ -15504,7 +15468,7 @@
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B726">
         <v>1567923.875</v>
@@ -15568,7 +15532,7 @@
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B734">
         <v>1567923.875</v>
@@ -15656,7 +15620,7 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B745">
         <v>1569557.25</v>
@@ -15920,7 +15884,7 @@
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B778">
         <v>1577995.5</v>
@@ -16048,7 +16012,7 @@
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B794">
         <v>1587029.75</v>
@@ -16160,7 +16124,7 @@
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B808">
         <v>1555170.375</v>
@@ -16296,7 +16260,7 @@
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B825">
         <v>1561095.75</v>
@@ -16776,7 +16740,7 @@
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B885">
         <v>1713200.75</v>
@@ -16864,7 +16828,7 @@
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B896">
         <v>1705001.375</v>
@@ -16992,7 +16956,7 @@
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B912">
         <v>1664121.875</v>
@@ -17088,7 +17052,7 @@
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B924">
         <v>1667769.75</v>
@@ -17408,7 +17372,7 @@
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B964">
         <v>1749972.875</v>
@@ -17520,7 +17484,7 @@
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B978">
         <v>1749972.875</v>
@@ -17536,7 +17500,7 @@
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B980">
         <v>1748486.625</v>
@@ -17768,7 +17732,7 @@
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1009">
         <v>1700314.25</v>
@@ -17936,7 +17900,7 @@
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1030">
         <v>1679269.25</v>
@@ -17944,7 +17908,7 @@
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1031">
         <v>1678401</v>
@@ -18224,7 +18188,7 @@
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1066">
         <v>1663419.25</v>
@@ -18320,7 +18284,7 @@
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1078">
         <v>1623115.375</v>
@@ -18616,7 +18580,7 @@
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1115">
         <v>1615853.375</v>
@@ -18728,7 +18692,7 @@
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1129" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1129">
         <v>1559495</v>
@@ -18840,7 +18804,7 @@
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1143" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1143">
         <v>1561260.5</v>
@@ -18912,7 +18876,7 @@
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1152" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1152">
         <v>1532502.75</v>
@@ -18984,7 +18948,7 @@
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1161">
         <v>1547161.5</v>
@@ -19072,7 +19036,7 @@
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1172" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1172">
         <v>1461525.375</v>
@@ -19160,7 +19124,7 @@
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1183" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1183">
         <v>1456325.875</v>
@@ -19256,7 +19220,7 @@
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1195" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1195">
         <v>1430055.625</v>
@@ -19384,7 +19348,7 @@
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1211" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1211">
         <v>1415658.125</v>
@@ -19416,7 +19380,7 @@
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1215" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1215">
         <v>1379706.125</v>
@@ -19464,7 +19428,7 @@
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1221" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1221">
         <v>1379706.125</v>
@@ -19656,7 +19620,7 @@
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1245" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1245">
         <v>1402269.125</v>
@@ -20664,7 +20628,7 @@
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1371" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1371">
         <v>1556882.75</v>
@@ -20768,7 +20732,7 @@
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1384" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1384">
         <v>1552968.25</v>
@@ -21296,7 +21260,7 @@
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1450" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1450">
         <v>1581095.25</v>
@@ -21304,7 +21268,7 @@
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1451" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1451">
         <v>1581436.25</v>
@@ -21312,7 +21276,7 @@
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1452" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1452">
         <v>1583190.5</v>
@@ -21328,7 +21292,7 @@
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1454" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1454">
         <v>1582242</v>
@@ -21416,7 +21380,7 @@
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1465" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1465">
         <v>1615980.5</v>
@@ -21576,7 +21540,7 @@
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1485" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1485">
         <v>1492069.75</v>
@@ -22256,7 +22220,7 @@
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1570" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1570">
         <v>1482830.125</v>
@@ -23360,7 +23324,7 @@
     </row>
     <row r="1708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1708" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1708">
         <v>1855499.5</v>
@@ -23768,7 +23732,7 @@
     </row>
     <row r="1759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1759" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1759">
         <v>1791498.75</v>
@@ -25184,7 +25148,7 @@
     </row>
     <row r="1936" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1936" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1936">
         <v>1798316.875</v>
@@ -25304,7 +25268,7 @@
     </row>
     <row r="1951" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1951" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1951">
         <v>1755806.75</v>
@@ -25392,7 +25356,7 @@
     </row>
     <row r="1962" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1962" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1962">
         <v>1687175.125</v>
@@ -26224,7 +26188,7 @@
     </row>
     <row r="2066" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2066" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2066">
         <v>1701308.75</v>
@@ -26400,7 +26364,7 @@
     </row>
     <row r="2088" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2088" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2088">
         <v>1588625.75</v>
@@ -27144,7 +27108,7 @@
     </row>
     <row r="2181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2181" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2181">
         <v>1592509.75</v>
@@ -27240,7 +27204,7 @@
     </row>
     <row r="2193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2193" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2193">
         <v>1562246.625</v>
@@ -27672,7 +27636,7 @@
     </row>
     <row r="2247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2247" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2247">
         <v>1578791.75</v>
@@ -28400,7 +28364,7 @@
     </row>
     <row r="2338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2338" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2338">
         <v>1581430</v>
@@ -28472,7 +28436,7 @@
     </row>
     <row r="2347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2347" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2347">
         <v>1500730.625</v>
@@ -28832,7 +28796,7 @@
     </row>
     <row r="2392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2392" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2392">
         <v>1500730.625</v>
